--- a/qf_vr_apps/qf_1micvr_app/fsm/FSMstates.xlsx
+++ b/qf_vr_apps/qf_1micvr_app/fsm/FSMstates.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QLogic\Collabnet\gitrepos\qorc-sdk-audio\qf_apps\qf_vr_prototype_app\fsm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DualBoot\qorc-sdk\qf_vr_apps\qf_1micvr_app_no_LPSD\fsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4750FBF-BF2D-424F-82DC-C0B3CA09D57B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3DF5EF5-02F3-454E-90DC-EB9EACD5E1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE517762-ADBE-4F43-B3B1-C5B91D470561}"/>
+    <workbookView xWindow="23600" yWindow="1640" windowWidth="27880" windowHeight="12120" xr2:uid="{CE517762-ADBE-4F43-B3B1-C5B91D470561}"/>
   </bookViews>
   <sheets>
-    <sheet name="RCStates" sheetId="1" r:id="rId1"/>
+    <sheet name="FSMstates" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Events</t>
   </si>
@@ -50,106 +50,91 @@
     <t>STARTED</t>
   </si>
   <si>
-    <t>STOP</t>
-  </si>
-  <si>
     <t>START</t>
   </si>
   <si>
     <t>WAIT_ON_KWD</t>
   </si>
   <si>
-    <t>WAIT_ON_LPSD</t>
-  </si>
-  <si>
     <t>VR_TRIGGER</t>
   </si>
   <si>
+    <t>Expected Next State</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Guards</t>
+  </si>
+  <si>
+    <t>PTT_Switch</t>
+  </si>
+  <si>
+    <t>AudioHW</t>
+  </si>
+  <si>
+    <t>LPSD</t>
+  </si>
+  <si>
+    <t>CircularBuffer</t>
+  </si>
+  <si>
+    <t>DONT_CARE</t>
+  </si>
+  <si>
+    <t>INITIAL</t>
+  </si>
+  <si>
+    <t>CONFIGURED</t>
+  </si>
+  <si>
+    <t>UNCONFIG</t>
+  </si>
+  <si>
+    <t>CONFIG</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>//END OF TABLE</t>
+  </si>
+  <si>
+    <t>START_SAVING</t>
+  </si>
+  <si>
+    <t>START_STREAMING</t>
+  </si>
+  <si>
+    <t>START_OFF</t>
+  </si>
+  <si>
+    <t>SAVING</t>
+  </si>
+  <si>
+    <t>STREAMING</t>
+  </si>
+  <si>
+    <t>Mute_Switch</t>
+  </si>
+  <si>
+    <t>MIN_NODE4</t>
+  </si>
+  <si>
+    <t>NODE4</t>
+  </si>
+  <si>
     <t>LPSD_OFF</t>
   </si>
   <si>
     <t>LPSD_ON</t>
   </si>
   <si>
-    <t>Expected Next State</t>
-  </si>
-  <si>
     <t>--</t>
   </si>
   <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>Guards</t>
-  </si>
-  <si>
-    <t>PTT_Switch</t>
-  </si>
-  <si>
-    <t>AudioHW</t>
-  </si>
-  <si>
-    <t>LPSD</t>
-  </si>
-  <si>
-    <t>CircularBuffer</t>
-  </si>
-  <si>
-    <t>DONT_CARE</t>
-  </si>
-  <si>
-    <t>INITIAL</t>
-  </si>
-  <si>
-    <t>CONFIGURED</t>
-  </si>
-  <si>
-    <t>UNCONFIG</t>
-  </si>
-  <si>
-    <t>CONFIG</t>
-  </si>
-  <si>
-    <t>DFS</t>
-  </si>
-  <si>
-    <t>//END OF TABLE</t>
-  </si>
-  <si>
-    <t>START_SAVING</t>
-  </si>
-  <si>
-    <t>START_STREAMING</t>
-  </si>
-  <si>
     <t>START_ON</t>
-  </si>
-  <si>
-    <t>START_OFF</t>
-  </si>
-  <si>
-    <t>SAVING</t>
-  </si>
-  <si>
-    <t>STREAMING</t>
-  </si>
-  <si>
-    <t>Mute_Switch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOP </t>
-  </si>
-  <si>
-    <t>MIN_NODE4</t>
-  </si>
-  <si>
-    <t>NODE4</t>
-  </si>
-  <si>
-    <t>MIN_NODE3</t>
-  </si>
-  <si>
-    <t>NODE3</t>
   </si>
 </sst>
 </file>
@@ -301,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -325,54 +310,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,33 +679,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="9.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="9.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" style="1" customWidth="1"/>
     <col min="14" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.77734375" style="1"/>
+    <col min="17" max="17" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
@@ -725,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
@@ -737,7 +725,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
       <c r="K1" s="24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L1" s="25"/>
       <c r="M1" s="25"/>
@@ -746,33 +734,33 @@
       <c r="P1" s="25"/>
       <c r="Q1" s="25"/>
     </row>
-    <row r="2" spans="1:17" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="21"/>
       <c r="C2" s="18"/>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K2" s="3" t="str">
-        <f t="shared" ref="K2:Q2" si="0">D2</f>
+        <f t="shared" ref="K2:Q3" si="0">D2</f>
         <v>DFS</v>
       </c>
       <c r="L2" s="3" t="str">
@@ -800,496 +788,333 @@
         <v>CircularBuffer</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>NODE4</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>STARTED</v>
+      </c>
+      <c r="M3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>STREAMING</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DONT_CARE</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DONT_CARE</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>DONT_CARE</v>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>SAVING</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:Q3" si="1">D3</f>
-        <v>NODE4</v>
-      </c>
-      <c r="L3" s="4" t="str">
+      <c r="C5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f t="shared" ref="K7:Q7" si="1">D7</f>
+        <v>DONT_CARE</v>
+      </c>
+      <c r="L7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>STARTED</v>
-      </c>
-      <c r="M3" s="4" t="str">
+        <v>STOPPED</v>
+      </c>
+      <c r="M7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>STREAMING</v>
-      </c>
-      <c r="N3" s="4" t="str">
+        <v>STOPPED</v>
+      </c>
+      <c r="N7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>DONT_CARE</v>
       </c>
-      <c r="O3" s="4" t="str">
+      <c r="O7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>DONT_CARE</v>
       </c>
-      <c r="P3" s="4" t="str">
+      <c r="P7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>DONT_CARE</v>
-      </c>
-      <c r="Q3" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>SAVING</v>
+        <v>STOPPED</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="17" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="11"/>
+      <c r="L8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="11"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="4" t="str">
+        <f t="shared" ref="K9:Q9" si="2">D9</f>
+        <v>UNCONFIG</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>UNCONFIG</v>
+      </c>
+      <c r="M9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>UNCONFIG</v>
+      </c>
+      <c r="N9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>UNCONFIG</v>
+      </c>
+      <c r="O9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>UNCONFIG</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>UNCONFIG</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="4" t="str">
-        <f t="shared" ref="K8:Q8" si="2">D8</f>
-        <v>NODE3</v>
-      </c>
-      <c r="L8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>STOPPED</v>
-      </c>
-      <c r="M8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>SAVING</v>
-      </c>
-      <c r="N8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>DONT_CARE</v>
-      </c>
-      <c r="O8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>DONT_CARE</v>
-      </c>
-      <c r="P8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>DONT_CARE</v>
-      </c>
-      <c r="Q8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>SAVING</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4" t="str">
-        <f t="shared" ref="K11:Q11" si="3">D11</f>
-        <v>DONT_CARE</v>
-      </c>
-      <c r="L11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>STOPPED</v>
-      </c>
-      <c r="M11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>STOPPED</v>
-      </c>
-      <c r="N11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>DONT_CARE</v>
-      </c>
-      <c r="O11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>DONT_CARE</v>
-      </c>
-      <c r="P11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>STOPPED</v>
-      </c>
-      <c r="Q11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>STOPPED</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="4" t="str">
-        <f t="shared" ref="K13:Q13" si="4">D13</f>
-        <v>UNCONFIG</v>
-      </c>
-      <c r="L13" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>UNCONFIG</v>
-      </c>
-      <c r="M13" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>UNCONFIG</v>
-      </c>
-      <c r="N13" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>UNCONFIG</v>
-      </c>
-      <c r="O13" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>UNCONFIG</v>
-      </c>
-      <c r="P13" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>UNCONFIG</v>
-      </c>
-      <c r="Q13" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>UNCONFIG</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
